--- a/public/excel/Template Initial Stock.xlsx
+++ b/public/excel/Template Initial Stock.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/43ce94ac5caf4f3b/Documents/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{614388FB-509D-4084-BD31-4C6C6D17E836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65FC07E9-D19B-4B43-A31E-6B3C87636451}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C5D73D62-DDD3-463B-9994-15F072DAE56A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Material</t>
   </si>
@@ -54,26 +48,44 @@
     <t>Warehouse</t>
   </si>
   <si>
-    <t>AB-01</t>
-  </si>
-  <si>
-    <t>AB-02</t>
-  </si>
-  <si>
-    <t>AB-03</t>
-  </si>
-  <si>
-    <t>Testing Upload</t>
-  </si>
-  <si>
-    <t>PC</t>
+    <t>600119</t>
+  </si>
+  <si>
+    <t>600083</t>
+  </si>
+  <si>
+    <t>600084</t>
+  </si>
+  <si>
+    <t>600086</t>
+  </si>
+  <si>
+    <t>600100</t>
+  </si>
+  <si>
+    <t>MATA GERINDA AMPLAS</t>
+  </si>
+  <si>
+    <t>CLAMP HOSE 1/2 INCH</t>
+  </si>
+  <si>
+    <t>CLAMP HOSE 3/4 INCH</t>
+  </si>
+  <si>
+    <t>CLAMP HOSE 2 INCH</t>
+  </si>
+  <si>
+    <t>CLAMP HOSE 1.5 INCH</t>
+  </si>
+  <si>
+    <t>PCS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +113,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -122,10 +140,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -186,7 +206,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -238,7 +258,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -432,30 +452,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E18C5F9B-C528-45B0-9516-DA5F3EBDBD27}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" customWidth="1"/>
     <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.77734375" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,18 +495,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6" ht="15">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>1500</v>
@@ -495,18 +515,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>2000</v>
@@ -515,23 +535,63 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>3000</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>1000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>3000</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>1000</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>3000</v>
+      </c>
+      <c r="F6">
         <v>1</v>
       </c>
     </row>

--- a/public/excel/Template Initial Stock.xlsx
+++ b/public/excel/Template Initial Stock.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Material</t>
   </si>
@@ -48,44 +48,32 @@
     <t>Warehouse</t>
   </si>
   <si>
-    <t>600119</t>
-  </si>
-  <si>
-    <t>600083</t>
-  </si>
-  <si>
-    <t>600084</t>
-  </si>
-  <si>
-    <t>600086</t>
-  </si>
-  <si>
-    <t>600100</t>
-  </si>
-  <si>
-    <t>MATA GERINDA AMPLAS</t>
-  </si>
-  <si>
-    <t>CLAMP HOSE 1/2 INCH</t>
-  </si>
-  <si>
-    <t>CLAMP HOSE 3/4 INCH</t>
-  </si>
-  <si>
-    <t>CLAMP HOSE 2 INCH</t>
-  </si>
-  <si>
-    <t>CLAMP HOSE 1.5 INCH</t>
-  </si>
-  <si>
-    <t>PCS</t>
+    <t>TEST001</t>
+  </si>
+  <si>
+    <t>TEST003</t>
+  </si>
+  <si>
+    <t>TEST002</t>
+  </si>
+  <si>
+    <t>RON 88 600ML</t>
+  </si>
+  <si>
+    <t>RON 88 1500ML</t>
+  </si>
+  <si>
+    <t>RON 88 330ML</t>
+  </si>
+  <si>
+    <t>Btl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,12 +88,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF212529"/>
-      <name val="Source Sans Pro"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -140,12 +122,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,7 +432,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -460,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -496,17 +476,17 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>11</v>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C2">
         <v>1000</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E2">
         <v>1500</v>
@@ -515,18 +495,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
+    <row r="3" spans="1:6" ht="15">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>1000</v>
       </c>
-      <c r="D3" t="s">
-        <v>16</v>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E3">
         <v>2000</v>
@@ -535,18 +515,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
+    <row r="4" spans="1:6" ht="15">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>1000</v>
       </c>
-      <c r="D4" t="s">
-        <v>16</v>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E4">
         <v>3000</v>
@@ -555,48 +535,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
-        <v>1000</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5">
-        <v>3000</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>1000</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6">
-        <v>3000</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>

--- a/public/excel/Template Initial Stock.xlsx
+++ b/public/excel/Template Initial Stock.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Material</t>
   </si>
@@ -48,32 +48,17 @@
     <t>Warehouse</t>
   </si>
   <si>
-    <t>TEST001</t>
-  </si>
-  <si>
-    <t>TEST003</t>
-  </si>
-  <si>
-    <t>TEST002</t>
-  </si>
-  <si>
-    <t>RON 88 600ML</t>
-  </si>
-  <si>
-    <t>RON 88 1500ML</t>
-  </si>
-  <si>
-    <t>RON 88 330ML</t>
-  </si>
-  <si>
-    <t>Btl</t>
+    <t>OIL ENGINE SAE 15W-40</t>
+  </si>
+  <si>
+    <t>LITER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,12 +79,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF212529"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -125,12 +104,25 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -440,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -475,68 +467,31 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
+        <v>700006</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="C2">
-        <v>1000</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>280</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>1500</v>
+        <v>10000</v>
       </c>
       <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>1000</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>2000</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>1000</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>3000</v>
-      </c>
-      <c r="F4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
